--- a/db/eos.xlsx
+++ b/db/eos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiedeng/GD/papers/paper10_oxidation/revision_Mar0220/oxidation_lite/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF914E-BBDA-2848-B5A5-656A8F156142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7255F-540B-634F-BA80-09AFED7DD901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="600" windowWidth="25040" windowHeight="17320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="600" windowWidth="25040" windowHeight="17320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="melt7_FeO1.5" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>P(GPa)</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Terr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>a</t>
@@ -164,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,18 +188,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -269,39 +263,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -309,29 +275,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,23 +1697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1787,735 +1739,733 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2000</v>
       </c>
-      <c r="B3" s="6">
-        <v>16.476171260157511</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3">
+        <v>4.3038990000000004</v>
+      </c>
+      <c r="C3">
+        <v>-547.58000000000004</v>
+      </c>
+      <c r="D3">
+        <v>987.99</v>
+      </c>
+      <c r="E3">
+        <v>1999.58</v>
+      </c>
+      <c r="F3">
+        <v>0.375</v>
+      </c>
+      <c r="G3">
+        <v>0.38</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>9.0465400000000002</v>
+      </c>
+      <c r="C4">
+        <v>-543.22</v>
+      </c>
+      <c r="D4">
+        <v>886.74</v>
+      </c>
+      <c r="E4">
+        <v>2000.02</v>
+      </c>
+      <c r="F4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.09</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>16.47617</v>
+      </c>
+      <c r="C5">
         <v>-543.64</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D5">
         <v>792.66</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5">
         <v>2000.58</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F5">
         <v>0.50900000000000001</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4.303899095229669</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-547.58000000000004</v>
-      </c>
-      <c r="D4" s="6">
-        <v>987.99</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1999.58</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="6">
-        <v>9.0465396826343429</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-543.22</v>
-      </c>
-      <c r="D5" s="6">
-        <v>886.74</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2000.02</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="G5" s="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B6">
+        <v>8.7849999999999994E-3</v>
+      </c>
+      <c r="C6">
+        <v>-536.25</v>
+      </c>
+      <c r="D6">
+        <v>1153.8800000000001</v>
+      </c>
+      <c r="E6">
+        <v>2499.98</v>
+      </c>
+      <c r="F6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.65</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>3.2054499999999999</v>
+      </c>
+      <c r="C7">
+        <v>-537.48</v>
+      </c>
+      <c r="D7">
+        <v>1041.3900000000001</v>
+      </c>
+      <c r="E7">
+        <v>2499.21</v>
+      </c>
+      <c r="F7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.52</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B8">
+        <v>9.0544720000000005</v>
+      </c>
+      <c r="C8">
+        <v>-537.27</v>
+      </c>
+      <c r="D8">
+        <v>911.38</v>
+      </c>
+      <c r="E8">
+        <v>2500.41</v>
+      </c>
+      <c r="F8">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.54</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B9">
+        <v>16.330079999999999</v>
+      </c>
+      <c r="C9">
+        <v>-534.23</v>
+      </c>
+      <c r="D9">
+        <v>815.52</v>
+      </c>
+      <c r="E9">
+        <v>2500.14</v>
+      </c>
+      <c r="F9">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.35</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>2500</v>
+      </c>
+      <c r="B10">
+        <v>24.657609999999998</v>
+      </c>
+      <c r="C10">
+        <v>-529.36</v>
+      </c>
+      <c r="D10">
+        <v>748.22</v>
+      </c>
+      <c r="E10">
+        <v>2500.19</v>
+      </c>
+      <c r="F10">
+        <v>0.61</v>
+      </c>
+      <c r="G10">
+        <v>0.26</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-525</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1180.95</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-5.11E-2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-526.54999999999995</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1183.21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3000.2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.09</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>2500</v>
-      </c>
-      <c r="B6" s="6">
-        <v>8.7850282924187839E-3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-536.25</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1153.8800000000001</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2499.98</v>
-      </c>
-      <c r="F6" s="6">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.0679619999999996</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-529.32000000000005</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1041.3900000000001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3000.11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.223</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6.8786129999999996</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-529.98</v>
+      </c>
+      <c r="D14" s="6">
+        <v>974.94</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2998.83</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10.431010000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-528.77</v>
+      </c>
+      <c r="D15" s="6">
+        <v>911.38</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3000.75</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B16" s="6">
+        <v>18.357620000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-526.48</v>
+      </c>
+      <c r="D16" s="6">
+        <v>815.52</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2987.91</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>27.368760000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-520.16999999999996</v>
+      </c>
+      <c r="D17" s="6">
+        <v>748.22</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3000.26</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>40.711300000000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-515.72</v>
+      </c>
+      <c r="D18" s="6">
+        <v>684.73</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3000.01</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B19" s="6">
+        <v>49.4651</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-511.35</v>
+      </c>
+      <c r="D19" s="6">
+        <v>654.38</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3000.6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B20" s="6">
+        <v>70.266890000000004</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-499.02</v>
+      </c>
+      <c r="D20" s="6">
+        <v>605.80999999999995</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3000.62</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.374</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-3.3910000000000003E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-509</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1260</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5.6575860000000002</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-508.71</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1041.3900000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4000.92</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B23">
+        <v>12.937860000000001</v>
+      </c>
+      <c r="C23">
+        <v>-507.84</v>
+      </c>
+      <c r="D23">
+        <v>911.38</v>
+      </c>
+      <c r="E23">
+        <v>3999.15</v>
+      </c>
+      <c r="F23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.49</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0.65</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>2500</v>
-      </c>
-      <c r="B7" s="6">
-        <v>16.330078236368951</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-534.23</v>
-      </c>
-      <c r="D7" s="6">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B24">
+        <v>22.564640000000001</v>
+      </c>
+      <c r="C24">
+        <v>-505.65</v>
+      </c>
+      <c r="D24">
         <v>815.52</v>
       </c>
-      <c r="E7" s="6">
-        <v>2500.14</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.56600000000000006</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>2500</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3.2054499999999999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-537.48</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1041.3900000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2499.21</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="E24">
+        <v>4000</v>
+      </c>
+      <c r="F24">
+        <v>0.32</v>
+      </c>
+      <c r="G24">
+        <v>0.73</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B25">
+        <v>32.813699999999997</v>
+      </c>
+      <c r="C25">
+        <v>-502.88</v>
+      </c>
+      <c r="D25">
+        <v>748.22</v>
+      </c>
+      <c r="E25">
+        <v>3999.3</v>
+      </c>
+      <c r="F25">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G25">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>2500</v>
-      </c>
-      <c r="B9" s="6">
-        <v>9.054471752601648</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-537.27</v>
-      </c>
-      <c r="D9" s="6">
-        <v>911.38</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2500.41</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.54</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>2500</v>
-      </c>
-      <c r="B10" s="6">
-        <v>24.65760916689117</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-529.36</v>
-      </c>
-      <c r="D10" s="6">
-        <v>748.22</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2500.19</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6.8786134614287331</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-529.98</v>
-      </c>
-      <c r="D11" s="6">
-        <v>974.94</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2998.83</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B12" s="6">
-        <v>49.4651</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-511.35</v>
-      </c>
-      <c r="D12" s="6">
-        <v>654.38</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3000.6</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.77699999999999991</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B13" s="6">
-        <v>18.357621956545</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-526.48</v>
-      </c>
-      <c r="D13" s="6">
-        <v>815.52</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2987.91</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4.0679619306146444</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-529.32000000000005</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1041.3900000000001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3000.11</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.223</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B15" s="6">
-        <v>70.266894421337852</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-499.02</v>
-      </c>
-      <c r="D15" s="6">
-        <v>605.80999999999995</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3000.62</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.374</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B16" s="6">
-        <v>40.711300000000001</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-515.72</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B26">
+        <v>47.463909999999998</v>
+      </c>
+      <c r="C26">
+        <v>-494.28</v>
+      </c>
+      <c r="D26">
         <v>684.73</v>
       </c>
-      <c r="E16" s="6">
-        <v>3000.01</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1180.9496537</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B18" s="6">
-        <v>-5.1101156278497283E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>-526.54999999999995</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1183.21</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3000.2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B19" s="6">
-        <v>27.368758975374231</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-520.16999999999996</v>
-      </c>
-      <c r="D19" s="6">
-        <v>748.22</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3000.26</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.78899999999999992</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.94</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>3000</v>
-      </c>
-      <c r="B20" s="9">
-        <v>10.431010377514051</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-528.77</v>
-      </c>
-      <c r="D20" s="9">
-        <v>911.38</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3000.75</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.24</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="E26">
+        <v>3999.72</v>
+      </c>
+      <c r="F26">
+        <v>0.315</v>
+      </c>
+      <c r="G26">
+        <v>0.39</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>4000</v>
       </c>
-      <c r="B21" s="6">
-        <v>5.6575861829205092</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-508.71</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1041.3900000000001</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4000.92</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B22" s="6">
-        <v>12.937860000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-507.84</v>
-      </c>
-      <c r="D22" s="6">
-        <v>911.38</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3999.15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.49</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B23" s="6">
-        <v>22.56463904196022</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-505.65</v>
-      </c>
-      <c r="D23" s="6">
-        <v>815.52</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B24" s="6">
-        <v>47.463909553971902</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-494.28</v>
-      </c>
-      <c r="D24" s="6">
-        <v>684.73</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3999.72</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.315</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B25" s="6">
-        <v>-3.3910531398663853E-2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1260</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B26" s="6">
-        <v>90.413207297411432</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B27">
+        <v>90.413210000000007</v>
+      </c>
+      <c r="C27">
         <v>-477.25</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27">
         <v>587.07000000000005</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27">
         <v>4000.69</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27">
         <v>0.307</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27">
         <v>1.61</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1.27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B27" s="6">
-        <v>32.813699999999997</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-502.88</v>
-      </c>
-      <c r="D27" s="6">
-        <v>748.22</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3999.3</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.97</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.41</v>
-      </c>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2541,98 +2491,98 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="7">
         <v>2000</v>
       </c>
       <c r="B29" s="6">
-        <v>9.4040399999999984</v>
+        <v>4.2652900000000002</v>
       </c>
       <c r="C29" s="6">
+        <v>-557.25</v>
+      </c>
+      <c r="D29" s="6">
+        <v>987.99</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1999.96</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B30" s="6">
+        <v>9.4040400000000002</v>
+      </c>
+      <c r="C30" s="6">
         <v>-552.21</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>886.74</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>2000.78</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>0.13100000000000001</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>0.03</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>2000</v>
       </c>
-      <c r="B30" s="6">
-        <v>16.99434495267197</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B31" s="6">
+        <v>16.994340000000001</v>
+      </c>
+      <c r="C31" s="6">
         <v>-548.22</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>792.66</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>2000.15</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>0.246</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>0.09</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0.52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B31" s="6">
-        <v>4.2652900000000002</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-497.25</v>
-      </c>
-      <c r="D31" s="6">
-        <v>987.99</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1999.96</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.115</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0.86</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="7">
         <v>2500</v>
       </c>
       <c r="B32" s="6">
-        <v>0.55175801677635994</v>
+        <v>0.55175799999999997</v>
       </c>
       <c r="C32" s="6">
         <v>-543.6</v>
@@ -2649,48 +2599,48 @@
       <c r="G32" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1.45</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="7">
         <v>2500</v>
       </c>
       <c r="B33" s="6">
-        <v>17.061800000000002</v>
+        <v>3.5499890000000001</v>
       </c>
       <c r="C33" s="6">
-        <v>-539.17999999999995</v>
+        <v>-545.20000000000005</v>
       </c>
       <c r="D33" s="6">
-        <v>815.52</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="E33" s="6">
-        <v>2500.7199999999998</v>
+        <v>2499.9499999999998</v>
       </c>
       <c r="F33" s="6">
-        <v>0.314</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="G33" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.79</v>
+        <v>0.63</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1.26</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="7">
         <v>2500</v>
       </c>
       <c r="B34" s="6">
-        <v>9.404910000000001</v>
+        <v>9.4049099999999992</v>
       </c>
       <c r="C34" s="6">
         <v>-543.01</v>
@@ -2707,48 +2657,48 @@
       <c r="G34" s="6">
         <v>0.45</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1.35</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <v>2500</v>
       </c>
       <c r="B35" s="6">
-        <v>3.5499887576101128</v>
+        <v>17.061800000000002</v>
       </c>
       <c r="C35" s="6">
-        <v>-545.20000000000005</v>
+        <v>-539.17999999999995</v>
       </c>
       <c r="D35" s="6">
-        <v>1041.3900000000001</v>
+        <v>815.52</v>
       </c>
       <c r="E35" s="6">
-        <v>2499.9499999999998</v>
+        <v>2500.7199999999998</v>
       </c>
       <c r="F35" s="6">
-        <v>0.20399999999999999</v>
+        <v>0.314</v>
       </c>
       <c r="G35" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1.26</v>
+        <v>0.61</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.79</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>2500</v>
       </c>
       <c r="B36" s="6">
-        <v>25.580173286258621</v>
+        <v>25.580169999999999</v>
       </c>
       <c r="C36" s="6">
         <v>-535.34</v>
@@ -2765,323 +2715,323 @@
       <c r="G36" s="6">
         <v>0.75</v>
       </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1.05</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="7">
         <v>3000</v>
       </c>
       <c r="B37" s="6">
-        <v>7.0627190112245843</v>
+        <v>0.46692800000000001</v>
       </c>
       <c r="C37" s="6">
+        <v>-534.88</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1183.21</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2999.88</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4.3174460000000003</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-535.86</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1041.3900000000001</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3000.15</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B39" s="6">
+        <v>7.0627190000000004</v>
+      </c>
+      <c r="C39" s="6">
         <v>-535.91999999999996</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D39" s="6">
         <v>974.94</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E39" s="6">
         <v>2999.65</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F39" s="6">
         <v>0.121</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G39" s="6">
         <v>0.32</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>0.98</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B38" s="6">
-        <v>52.026057955621603</v>
-      </c>
-      <c r="C38" s="6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10.626659999999999</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-535.21</v>
+      </c>
+      <c r="D40" s="6">
+        <v>911.38</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3000.89</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.158</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B41" s="6">
+        <v>18.878730000000001</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-531.91</v>
+      </c>
+      <c r="D41" s="6">
+        <v>815.52</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3000.6</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.311</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B42" s="6">
+        <v>28.329370000000001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-526.6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>748.22</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3000.12</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42.415550000000003</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-522.66</v>
+      </c>
+      <c r="D43" s="6">
+        <v>684.73</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3000.43</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.219</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B44" s="6">
+        <v>52.026060000000001</v>
+      </c>
+      <c r="C44" s="6">
         <v>-515.30999999999995</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D44" s="6">
         <v>654.38</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E44" s="6">
         <v>3000.33</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F44" s="6">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G44" s="6">
         <v>0.89</v>
       </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B39">
-        <v>42.415549100729272</v>
-      </c>
-      <c r="C39">
-        <v>-522.66</v>
-      </c>
-      <c r="D39">
-        <v>684.73</v>
-      </c>
-      <c r="E39">
-        <v>3000.43</v>
-      </c>
-      <c r="F39">
-        <v>0.219</v>
-      </c>
-      <c r="G39">
-        <v>0.64</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B40">
-        <v>0.46692760580091291</v>
-      </c>
-      <c r="C40">
-        <v>-534.88</v>
-      </c>
-      <c r="D40">
-        <v>1183.21</v>
-      </c>
-      <c r="E40">
-        <v>2999.88</v>
-      </c>
-      <c r="F40">
-        <v>0.17</v>
-      </c>
-      <c r="G40">
-        <v>0.77</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B41">
-        <v>73.628806927389434</v>
-      </c>
-      <c r="C41">
-        <v>-467.52</v>
-      </c>
-      <c r="D41">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="6">
+        <v>73.628810000000001</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-510.52</v>
+      </c>
+      <c r="D45" s="6">
         <v>605.80999999999995</v>
       </c>
-      <c r="E41">
+      <c r="E45" s="6">
         <v>3000.3</v>
       </c>
-      <c r="F41">
+      <c r="F45" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G41">
+      <c r="G45" s="6">
         <v>1.74</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0.65</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B42">
-        <v>18.878728556689591</v>
-      </c>
-      <c r="C42">
-        <v>-531.91</v>
-      </c>
-      <c r="D42">
-        <v>815.52</v>
-      </c>
-      <c r="E42">
-        <v>3000.6</v>
-      </c>
-      <c r="F42">
-        <v>0.311</v>
-      </c>
-      <c r="G42">
-        <v>1.07</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B43">
-        <v>10.6266551509684</v>
-      </c>
-      <c r="C43">
-        <v>-535.21</v>
-      </c>
-      <c r="D43">
-        <v>911.38</v>
-      </c>
-      <c r="E43">
-        <v>3000.89</v>
-      </c>
-      <c r="F43">
-        <v>0.158</v>
-      </c>
-      <c r="G43">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B44">
-        <v>4.3174463610785692</v>
-      </c>
-      <c r="C44">
-        <v>-535.86</v>
-      </c>
-      <c r="D44">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.14510600000000001</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-516</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1277</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B47" s="6">
+        <v>5.851502</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-514.77</v>
+      </c>
+      <c r="D47" s="6">
         <v>1041.3900000000001</v>
       </c>
-      <c r="E44">
-        <v>3000.15</v>
-      </c>
-      <c r="F44">
-        <v>0.375</v>
-      </c>
-      <c r="G44">
-        <v>0.61</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>3000</v>
-      </c>
-      <c r="B45">
-        <v>28.329373853703871</v>
-      </c>
-      <c r="C45">
-        <v>-526.6</v>
-      </c>
-      <c r="D45">
-        <v>748.22</v>
-      </c>
-      <c r="E45">
-        <v>3000.12</v>
-      </c>
-      <c r="F45">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G45">
-        <v>0.9</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B46">
-        <v>0.14510575357991159</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1277</v>
-      </c>
-      <c r="E46">
-        <v>4000</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B47">
-        <v>5.8515023591831294</v>
-      </c>
-      <c r="C47">
-        <v>-514.77</v>
-      </c>
-      <c r="D47">
-        <v>1041.3900000000001</v>
-      </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>3999.99</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>0.152</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <v>0.95</v>
       </c>
       <c r="H47">
@@ -3092,148 +3042,148 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="7">
         <v>4000</v>
       </c>
-      <c r="B48">
-        <v>94.29043235200956</v>
-      </c>
-      <c r="C48">
-        <v>-520.44000000000005</v>
-      </c>
-      <c r="D48">
+      <c r="B48" s="6">
+        <v>13.409369999999999</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-513.85</v>
+      </c>
+      <c r="D48" s="6">
+        <v>911.38</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3998.3</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B49">
+        <v>23.107469999999999</v>
+      </c>
+      <c r="C49">
+        <v>-511.52</v>
+      </c>
+      <c r="D49">
+        <v>815.52</v>
+      </c>
+      <c r="E49">
+        <v>3999.69</v>
+      </c>
+      <c r="F49">
+        <v>0.253</v>
+      </c>
+      <c r="G49">
+        <v>0.35</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B50">
+        <v>33.971699999999998</v>
+      </c>
+      <c r="C50">
+        <v>-507.67</v>
+      </c>
+      <c r="D50">
+        <v>748.22</v>
+      </c>
+      <c r="E50">
+        <v>3999.27</v>
+      </c>
+      <c r="F50">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G50">
+        <v>0.52</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B51" s="6">
+        <v>49.324010000000001</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-502.59</v>
+      </c>
+      <c r="D51" s="6">
+        <v>684.73</v>
+      </c>
+      <c r="E51" s="6">
+        <v>4000.42</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.995</v>
+      </c>
+      <c r="G51">
+        <v>0.85</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B52" s="6">
+        <v>94.290430000000001</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-490.44</v>
+      </c>
+      <c r="D52" s="6">
         <v>587.07000000000005</v>
       </c>
-      <c r="E48">
+      <c r="E52" s="6">
         <v>3999.64</v>
       </c>
-      <c r="F48">
-        <v>0.43200000000000011</v>
-      </c>
-      <c r="G48">
+      <c r="F52" s="6">
+        <v>0.432</v>
+      </c>
+      <c r="G52">
         <v>2.16</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B49">
-        <v>13.409367892410611</v>
-      </c>
-      <c r="C49">
-        <v>-513.85</v>
-      </c>
-      <c r="D49">
-        <v>911.38</v>
-      </c>
-      <c r="E49">
-        <v>3998.3</v>
-      </c>
-      <c r="F49">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G49">
-        <v>1.19</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B50">
-        <v>23.107470182974449</v>
-      </c>
-      <c r="C50">
-        <v>-511.52</v>
-      </c>
-      <c r="D50">
-        <v>815.52</v>
-      </c>
-      <c r="E50">
-        <v>3999.69</v>
-      </c>
-      <c r="F50">
-        <v>0.253</v>
-      </c>
-      <c r="G50">
-        <v>0.35</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B51">
-        <v>33.971699999999998</v>
-      </c>
-      <c r="C51">
-        <v>-507.67</v>
-      </c>
-      <c r="D51">
-        <v>748.22</v>
-      </c>
-      <c r="E51">
-        <v>3999.27</v>
-      </c>
-      <c r="F51">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G51">
-        <v>0.52</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>4000</v>
-      </c>
-      <c r="B52">
-        <v>49.324012248298082</v>
-      </c>
-      <c r="C52">
-        <v>-502.59</v>
-      </c>
-      <c r="D52">
-        <v>684.73</v>
-      </c>
-      <c r="E52">
-        <v>4000.42</v>
-      </c>
-      <c r="F52">
-        <v>0.99499999999999988</v>
-      </c>
-      <c r="G52">
-        <v>0.85</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -3246,36 +3196,36 @@
   <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2000</v>
       </c>
       <c r="B3">
@@ -3301,7 +3251,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4">
@@ -3327,7 +3277,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2000</v>
       </c>
       <c r="B5">
@@ -3353,7 +3303,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2500</v>
       </c>
       <c r="B6">
@@ -3379,7 +3329,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2500</v>
       </c>
       <c r="B7">
@@ -3405,7 +3355,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2500</v>
       </c>
       <c r="B8">
@@ -3431,7 +3381,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2500</v>
       </c>
       <c r="B9">
@@ -3457,7 +3407,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2500</v>
       </c>
       <c r="B10">
@@ -3483,7 +3433,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>3000</v>
       </c>
       <c r="B11">
@@ -3509,7 +3459,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>3000</v>
       </c>
       <c r="B12">
@@ -3535,7 +3485,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>3000</v>
       </c>
       <c r="B13">
@@ -3561,7 +3511,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>3000</v>
       </c>
       <c r="B14">
@@ -3587,7 +3537,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>3000</v>
       </c>
       <c r="B15">
@@ -3613,7 +3563,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>3000</v>
       </c>
       <c r="B16">
@@ -3639,7 +3589,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>4000</v>
       </c>
       <c r="B17">
@@ -3665,7 +3615,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>4000</v>
       </c>
       <c r="B18">
@@ -3691,7 +3641,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>4000</v>
       </c>
       <c r="B19">
@@ -3717,7 +3667,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>4000</v>
       </c>
       <c r="B20">
@@ -3743,7 +3693,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>4000</v>
       </c>
       <c r="B21">
@@ -3769,7 +3719,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>4000</v>
       </c>
       <c r="B22">
@@ -3795,7 +3745,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>4000</v>
       </c>
       <c r="B23">
@@ -3821,30 +3771,30 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>2000</v>
       </c>
       <c r="B25">
@@ -3870,7 +3820,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>2000</v>
       </c>
       <c r="B26">
@@ -3896,7 +3846,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>2000</v>
       </c>
       <c r="B27">
@@ -3922,7 +3872,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>2500</v>
       </c>
       <c r="B28">
@@ -3948,7 +3898,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>2500</v>
       </c>
       <c r="B29">
@@ -3974,7 +3924,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>2500</v>
       </c>
       <c r="B30">
@@ -4000,7 +3950,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>2500</v>
       </c>
       <c r="B31">
@@ -4026,7 +3976,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>2500</v>
       </c>
       <c r="B32">
@@ -4052,7 +4002,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>3000</v>
       </c>
       <c r="B33">
@@ -4078,7 +4028,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>3000</v>
       </c>
       <c r="B34">
@@ -4104,7 +4054,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>3000</v>
       </c>
       <c r="B35">
@@ -4130,7 +4080,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>3000</v>
       </c>
       <c r="B36">
@@ -4156,7 +4106,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>3000</v>
       </c>
       <c r="B37">
@@ -4182,7 +4132,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>3000</v>
       </c>
       <c r="B38">
@@ -4208,7 +4158,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>3000</v>
       </c>
       <c r="B39">
@@ -4234,7 +4184,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>4000</v>
       </c>
       <c r="B40">
@@ -4260,7 +4210,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>4000</v>
       </c>
       <c r="B41">
@@ -4286,7 +4236,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>4000</v>
       </c>
       <c r="B42">
@@ -4312,7 +4262,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>4000</v>
       </c>
       <c r="B43">
@@ -4338,7 +4288,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>4000</v>
       </c>
       <c r="B44">
@@ -4364,7 +4314,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>4000</v>
       </c>
       <c r="B45">
@@ -4390,7 +4340,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>4000</v>
       </c>
       <c r="B46">
@@ -4431,61 +4381,61 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="B2">
         <v>26.882025579072259</v>
@@ -4540,8 +4490,8 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
+      <c r="A3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>28.6482720219458</v>
@@ -4596,61 +4546,61 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
+      <c r="A5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B5">
         <v>35.793974833947061</v>
@@ -4679,42 +4629,42 @@
       <c r="J5">
         <v>3000</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="6">
         <f>0.635387596070756/6/2.8</f>
         <v>3.7820690242306908E-2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="6">
         <f>1.59645624208467/10/2.8</f>
         <v>5.7016294360166794E-2</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="6">
         <f>0.983787605665155/10/2.8</f>
         <v>3.5135271630898392E-2</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="6">
         <f>1.64696554648231/5</f>
         <v>0.32939310929646204</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="6">
         <f>0.347437937887496/7</f>
         <v>4.963399112678514E-2</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <f>0.042094519858179/8</f>
         <v>5.2618149822723746E-3</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="6">
         <f>0.00102596913703221/5</f>
         <v>2.0519382740644203E-4</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="6">
         <f>0.00617150417829233/28</f>
         <v>2.2041086351044036E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
+      <c r="A6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B6">
         <v>34.526163942068571</v>
@@ -4743,95 +4693,95 @@
       <c r="J6">
         <v>3000</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="6">
         <f>0.806754821729753/9/2.8</f>
         <v>3.201408022737115E-2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="6">
         <f>2.04875992284507/10/2.8</f>
         <v>7.3169997244466795E-2</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="6">
         <f>1.27655035223264/10/2.8</f>
         <v>4.5591084008308573E-2</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="6">
         <f>2.77081671344877/5</f>
         <v>0.55416334268975398</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="6">
         <f>0.486487844572804/7</f>
         <v>6.9498263510400574E-2</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="6">
         <f>0.0653205786807996/8</f>
         <v>8.1650723350999502E-3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="6">
         <f>0.00327690998212958/5</f>
         <v>6.5538199642591597E-4</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="6">
         <f>0.0106492285386501/28</f>
         <v>3.8032959066607502E-4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
+      <c r="A8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B8">
         <v>31.34712676268099</v>
@@ -4886,8 +4836,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>31</v>
+      <c r="A9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B9">
         <v>30.384142639923301</v>
@@ -4942,61 +4892,61 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>32</v>
+      <c r="A11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
         <v>32.593659206000048</v>
@@ -5051,8 +5001,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
+      <c r="A12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
         <v>20.607438437607939</v>
@@ -5108,45 +5058,45 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
       <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1180</v>
@@ -5176,13 +5126,13 @@
         <v>28.1</v>
       </c>
       <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +5144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F1C19C-4ECB-0C45-9BE1-BCFF9D09DBFD}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5204,21 +5154,21 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="5">
         <v>1E-4</v>
       </c>
       <c r="B2">
@@ -5235,7 +5185,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="5">
         <v>1.414240404040404</v>
       </c>
       <c r="B3">
@@ -5252,7 +5202,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="5">
         <v>2.8283808080808082</v>
       </c>
       <c r="B4">
@@ -5269,7 +5219,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="5">
         <v>4.2425212121212121</v>
       </c>
       <c r="B5">
@@ -5286,7 +5236,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>5.6566616161616166</v>
       </c>
       <c r="B6">
@@ -5303,7 +5253,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="5">
         <v>7.070802020202021</v>
       </c>
       <c r="B7">
@@ -5320,7 +5270,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>8.4849424242424245</v>
       </c>
       <c r="B8">
@@ -5337,7 +5287,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>9.8990828282828289</v>
       </c>
       <c r="B9">
@@ -5354,7 +5304,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>11.31322323232323</v>
       </c>
       <c r="B10">
@@ -5371,7 +5321,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>12.72736363636364</v>
       </c>
       <c r="B11">
@@ -5388,7 +5338,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="5">
         <v>14.14150404040404</v>
       </c>
       <c r="B12">
@@ -5405,7 +5355,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="5">
         <v>15.55564444444444</v>
       </c>
       <c r="B13">
@@ -5422,7 +5372,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="5">
         <v>16.969784848484849</v>
       </c>
       <c r="B14">
@@ -5439,7 +5389,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="5">
         <v>18.383925252525248</v>
       </c>
       <c r="B15">
@@ -5456,7 +5406,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="5">
         <v>19.798065656565662</v>
       </c>
       <c r="B16">
@@ -5473,7 +5423,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="5">
         <v>21.212206060606061</v>
       </c>
       <c r="B17">
@@ -5490,7 +5440,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="5">
         <v>22.62634646464647</v>
       </c>
       <c r="B18">
@@ -5507,7 +5457,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="5">
         <v>24.04048686868687</v>
       </c>
       <c r="B19">
@@ -5524,7 +5474,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="5">
         <v>25.454627272727269</v>
       </c>
       <c r="B20">
@@ -5541,7 +5491,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="A21" s="5">
         <v>26.868767676767678</v>
       </c>
       <c r="B21">
@@ -5558,7 +5508,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="A22" s="5">
         <v>28.282908080808081</v>
       </c>
       <c r="B22">
@@ -5575,7 +5525,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="A23" s="5">
         <v>29.69704848484848</v>
       </c>
       <c r="B23">
@@ -5592,7 +5542,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="A24" s="5">
         <v>31.11118888888889</v>
       </c>
       <c r="B24">
@@ -5609,7 +5559,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="5">
         <v>32.525329292929293</v>
       </c>
       <c r="B25">
@@ -5626,7 +5576,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="5">
         <v>33.939469696969702</v>
       </c>
       <c r="B26">
@@ -5643,7 +5593,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="5">
         <v>35.353610101010098</v>
       </c>
       <c r="B27">
@@ -5660,7 +5610,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="5">
         <v>36.767750505050508</v>
       </c>
       <c r="B28">
@@ -5677,7 +5627,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="A29" s="5">
         <v>38.18189090909091</v>
       </c>
       <c r="B29">
@@ -5694,7 +5644,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
+      <c r="A30" s="5">
         <v>39.59603131313132</v>
       </c>
       <c r="B30">
@@ -5711,7 +5661,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="5">
         <v>41.010171717171723</v>
       </c>
       <c r="B31">
@@ -5728,7 +5678,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="A32" s="5">
         <v>42.424312121212118</v>
       </c>
       <c r="B32">
@@ -5745,7 +5695,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="A33" s="5">
         <v>43.838452525252528</v>
       </c>
       <c r="B33">
@@ -5762,7 +5712,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="5">
         <v>45.252592929292931</v>
       </c>
       <c r="B34">
@@ -5779,7 +5729,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="5">
         <v>46.666733333333333</v>
       </c>
       <c r="B35">
@@ -5796,7 +5746,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+      <c r="A36" s="5">
         <v>48.080873737373743</v>
       </c>
       <c r="B36">
@@ -5813,7 +5763,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+      <c r="A37" s="5">
         <v>49.495014141414153</v>
       </c>
       <c r="B37">
@@ -5830,7 +5780,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="A38" s="5">
         <v>50.909154545454541</v>
       </c>
       <c r="B38">
@@ -5847,7 +5797,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+      <c r="A39" s="5">
         <v>52.323294949494951</v>
       </c>
       <c r="B39">
@@ -5864,7 +5814,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="A40" s="5">
         <v>53.737435353535353</v>
       </c>
       <c r="B40">
@@ -5881,7 +5831,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="5">
         <v>55.151575757575763</v>
       </c>
       <c r="B41">
@@ -5898,7 +5848,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="A42" s="5">
         <v>56.565716161616173</v>
       </c>
       <c r="B42">
@@ -5915,7 +5865,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="A43" s="5">
         <v>57.979856565656569</v>
       </c>
       <c r="B43">
@@ -5932,7 +5882,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="A44" s="5">
         <v>59.393996969696971</v>
       </c>
       <c r="B44">
@@ -5949,7 +5899,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="5">
         <v>60.808137373737367</v>
       </c>
       <c r="B45">
@@ -5966,7 +5916,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
+      <c r="A46" s="5">
         <v>62.222277777777776</v>
       </c>
       <c r="B46">
@@ -5983,7 +5933,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
+      <c r="A47" s="5">
         <v>63.636418181818193</v>
       </c>
       <c r="B47">
@@ -6000,7 +5950,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
+      <c r="A48" s="5">
         <v>65.050558585858596</v>
       </c>
       <c r="B48">
@@ -6017,7 +5967,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+      <c r="A49" s="5">
         <v>66.464698989898991</v>
       </c>
       <c r="B49">
@@ -6034,7 +5984,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
+      <c r="A50" s="5">
         <v>67.878839393939387</v>
       </c>
       <c r="B50">
@@ -6051,7 +6001,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
+      <c r="A51" s="5">
         <v>69.292979797979797</v>
       </c>
       <c r="B51">
@@ -6068,7 +6018,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
+      <c r="A52" s="5">
         <v>70.707120202020207</v>
       </c>
       <c r="B52">
@@ -6085,7 +6035,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
+      <c r="A53" s="5">
         <v>72.121260606060602</v>
       </c>
       <c r="B53">
@@ -6102,7 +6052,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+      <c r="A54" s="5">
         <v>73.535401010101012</v>
       </c>
       <c r="B54">
@@ -6119,7 +6069,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
+      <c r="A55" s="5">
         <v>74.949541414141422</v>
       </c>
       <c r="B55">
@@ -6136,7 +6086,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="A56" s="5">
         <v>76.363681818181817</v>
       </c>
       <c r="B56">
@@ -6153,7 +6103,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
+      <c r="A57" s="5">
         <v>77.777822222222227</v>
       </c>
       <c r="B57">
@@ -6170,7 +6120,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
+      <c r="A58" s="5">
         <v>79.191962626262637</v>
       </c>
       <c r="B58">
@@ -6187,7 +6137,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
+      <c r="A59" s="5">
         <v>80.606103030303046</v>
       </c>
       <c r="B59">
@@ -6204,7 +6154,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
+      <c r="A60" s="5">
         <v>82.020243434343428</v>
       </c>
       <c r="B60">
@@ -6221,7 +6171,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
+      <c r="A61" s="5">
         <v>83.434383838383837</v>
       </c>
       <c r="B61">
@@ -6238,7 +6188,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
+      <c r="A62" s="5">
         <v>84.848524242424247</v>
       </c>
       <c r="B62">
@@ -6255,7 +6205,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
+      <c r="A63" s="5">
         <v>86.262664646464643</v>
       </c>
       <c r="B63">
@@ -6272,7 +6222,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
+      <c r="A64" s="5">
         <v>87.676805050505052</v>
       </c>
       <c r="B64">
@@ -6289,7 +6239,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
+      <c r="A65" s="5">
         <v>89.090945454545462</v>
       </c>
       <c r="B65">
@@ -6306,7 +6256,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
+      <c r="A66" s="5">
         <v>90.505085858585858</v>
       </c>
       <c r="B66">
@@ -6323,7 +6273,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="10">
+      <c r="A67" s="5">
         <v>91.919226262626267</v>
       </c>
       <c r="B67">
@@ -6340,7 +6290,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
+      <c r="A68" s="5">
         <v>93.333366666666677</v>
       </c>
       <c r="B68">
@@ -6357,7 +6307,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
+      <c r="A69" s="5">
         <v>94.747507070707073</v>
       </c>
       <c r="B69">
@@ -6374,7 +6324,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
+      <c r="A70" s="5">
         <v>96.161647474747483</v>
       </c>
       <c r="B70">
@@ -6391,7 +6341,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
+      <c r="A71" s="5">
         <v>97.575787878787892</v>
       </c>
       <c r="B71">
@@ -6408,7 +6358,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
+      <c r="A72" s="5">
         <v>98.989928282828288</v>
       </c>
       <c r="B72">
@@ -6425,7 +6375,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
+      <c r="A73" s="5">
         <v>100.4040686868687</v>
       </c>
       <c r="B73">
@@ -6442,7 +6392,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="10">
+      <c r="A74" s="5">
         <v>101.81820909090909</v>
       </c>
       <c r="B74">
@@ -6459,7 +6409,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
+      <c r="A75" s="5">
         <v>103.2323494949495</v>
       </c>
       <c r="B75">
@@ -6476,7 +6426,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="10">
+      <c r="A76" s="5">
         <v>104.6464898989899</v>
       </c>
       <c r="B76">
@@ -6493,7 +6443,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="10">
+      <c r="A77" s="5">
         <v>106.06063030303029</v>
       </c>
       <c r="B77">
@@ -6510,7 +6460,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="10">
+      <c r="A78" s="5">
         <v>107.4747707070707</v>
       </c>
       <c r="B78">
@@ -6527,7 +6477,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="10">
+      <c r="A79" s="5">
         <v>108.8889111111111</v>
       </c>
       <c r="B79">
@@ -6544,7 +6494,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="10">
+      <c r="A80" s="5">
         <v>110.30305151515149</v>
       </c>
       <c r="B80">
@@ -6561,7 +6511,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
+      <c r="A81" s="5">
         <v>111.7171919191919</v>
       </c>
       <c r="B81">
@@ -6578,7 +6528,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
+      <c r="A82" s="5">
         <v>113.1313323232323</v>
       </c>
       <c r="B82">
@@ -6595,7 +6545,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="10">
+      <c r="A83" s="5">
         <v>114.5454727272727</v>
       </c>
       <c r="B83">
@@ -6612,7 +6562,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="10">
+      <c r="A84" s="5">
         <v>115.95961313131311</v>
       </c>
       <c r="B84">
@@ -6629,7 +6579,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="10">
+      <c r="A85" s="5">
         <v>117.3737535353535</v>
       </c>
       <c r="B85">
@@ -6646,7 +6596,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+      <c r="A86" s="5">
         <v>118.7878939393939</v>
       </c>
       <c r="B86">
@@ -6663,7 +6613,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+      <c r="A87" s="5">
         <v>120.20203434343431</v>
       </c>
       <c r="B87">
@@ -6680,7 +6630,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+      <c r="A88" s="5">
         <v>121.6161747474747</v>
       </c>
       <c r="B88">
@@ -6697,7 +6647,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+      <c r="A89" s="5">
         <v>123.0303151515152</v>
       </c>
       <c r="B89">
@@ -6714,7 +6664,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+      <c r="A90" s="5">
         <v>124.44445555555561</v>
       </c>
       <c r="B90">
@@ -6731,7 +6681,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+      <c r="A91" s="5">
         <v>125.858595959596</v>
       </c>
       <c r="B91">
@@ -6748,7 +6698,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+      <c r="A92" s="5">
         <v>127.2727363636364</v>
       </c>
       <c r="B92">
@@ -6765,7 +6715,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+      <c r="A93" s="5">
         <v>128.68687676767681</v>
       </c>
       <c r="B93">
@@ -6782,7 +6732,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+      <c r="A94" s="5">
         <v>130.10101717171719</v>
       </c>
       <c r="B94">
@@ -6799,7 +6749,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
+      <c r="A95" s="5">
         <v>131.5151575757576</v>
       </c>
       <c r="B95">
@@ -6816,7 +6766,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="10">
+      <c r="A96" s="5">
         <v>132.92929797979801</v>
       </c>
       <c r="B96">
@@ -6833,7 +6783,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
+      <c r="A97" s="5">
         <v>134.34343838383839</v>
       </c>
       <c r="B97">
@@ -6850,7 +6800,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
+      <c r="A98" s="5">
         <v>135.7575787878788</v>
       </c>
       <c r="B98">
@@ -6867,7 +6817,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="10">
+      <c r="A99" s="5">
         <v>137.17171919191921</v>
       </c>
       <c r="B99">
@@ -6884,7 +6834,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+      <c r="A100" s="5">
         <v>138.58585959595959</v>
       </c>
       <c r="B100">
@@ -6901,7 +6851,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="10">
+      <c r="A101" s="5">
         <v>140</v>
       </c>
       <c r="B101">
@@ -6926,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
